--- a/all-data/v2-data/22Oct2018/linear-v2-multipop-crude-rate-n.xlsx
+++ b/all-data/v2-data/22Oct2018/linear-v2-multipop-crude-rate-n.xlsx
@@ -897,91 +897,91 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="BV2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CF2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH2" t="n">
-        <v>3</v>
+        <v>2.000600180054016</v>
       </c>
       <c r="CI2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CK2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="CL2" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="CM2" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="CN2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CO2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CP2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CQ2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CR2" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
-        <v>6</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="CT2" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="CU2" t="n">
-        <v>7</v>
+        <v>1.00070049034324</v>
       </c>
       <c r="CV2" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="CW2" t="n">
-        <v>9</v>
+        <v>2.001801621459313</v>
       </c>
     </row>
     <row r="3" spans="1:101">
@@ -1196,97 +1196,97 @@
         <v>0</v>
       </c>
       <c r="BS3" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="BT3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BX3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CB3" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="CC3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="CD3" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="CE3" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="CF3" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="CG3" t="n">
-        <v>6</v>
+        <v>1.00060036021613</v>
       </c>
       <c r="CH3" t="n">
-        <v>8</v>
+        <v>2.00160128102482</v>
       </c>
       <c r="CI3" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>10</v>
+        <v>2.002002002002002</v>
       </c>
       <c r="CK3" t="n">
-        <v>12</v>
+        <v>2.002402883460152</v>
       </c>
       <c r="CL3" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="CM3" t="n">
-        <v>13</v>
+        <v>1.00130169219986</v>
       </c>
       <c r="CN3" t="n">
-        <v>14</v>
+        <v>1.001401962747847</v>
       </c>
       <c r="CO3" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="CP3" t="n">
-        <v>16</v>
+        <v>2.003205128205128</v>
       </c>
       <c r="CQ3" t="n">
-        <v>21</v>
+        <v>5.010522096402445</v>
       </c>
       <c r="CR3" t="n">
-        <v>23</v>
+        <v>2.004610604390098</v>
       </c>
       <c r="CS3" t="n">
-        <v>26</v>
+        <v>3.00782033286545</v>
       </c>
       <c r="CT3" t="n">
-        <v>29</v>
+        <v>3.008725303379801</v>
       </c>
       <c r="CU3" t="n">
-        <v>33</v>
+        <v>4.013243704223939</v>
       </c>
       <c r="CV3" t="n">
-        <v>37</v>
+        <v>4.014854963364448</v>
       </c>
       <c r="CW3" t="n">
-        <v>41</v>
+        <v>4.016467516818958</v>
       </c>
     </row>
     <row r="4" spans="1:101">
@@ -1480,118 +1480,118 @@
         <v>0</v>
       </c>
       <c r="BL4" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="BM4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS4" t="n">
-        <v>3</v>
+        <v>2.000600180054016</v>
       </c>
       <c r="BT4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BU4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BV4" t="n">
-        <v>6</v>
+        <v>3.001801080648389</v>
       </c>
       <c r="BW4" t="n">
-        <v>8</v>
+        <v>2.00160128102482</v>
       </c>
       <c r="BX4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BY4" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>10</v>
+        <v>2.002002002002002</v>
       </c>
       <c r="CA4" t="n">
-        <v>11</v>
+        <v>1.001101211332466</v>
       </c>
       <c r="CB4" t="n">
-        <v>12</v>
+        <v>1.001201441730076</v>
       </c>
       <c r="CC4" t="n">
-        <v>15</v>
+        <v>3.00450676014021</v>
       </c>
       <c r="CD4" t="n">
-        <v>16</v>
+        <v>1.001602564102564</v>
       </c>
       <c r="CE4" t="n">
-        <v>19</v>
+        <v>3.00571085061617</v>
       </c>
       <c r="CF4" t="n">
-        <v>23</v>
+        <v>4.009221208780195</v>
       </c>
       <c r="CG4" t="n">
-        <v>26</v>
+        <v>3.00782033286545</v>
       </c>
       <c r="CH4" t="n">
-        <v>32</v>
+        <v>6.019261637239165</v>
       </c>
       <c r="CI4" t="n">
-        <v>34</v>
+        <v>2.006823198876179</v>
       </c>
       <c r="CJ4" t="n">
-        <v>42</v>
+        <v>8.033741715203856</v>
       </c>
       <c r="CK4" t="n">
-        <v>47</v>
+        <v>5.023610971566361</v>
       </c>
       <c r="CL4" t="n">
-        <v>50</v>
+        <v>3.015075376884422</v>
       </c>
       <c r="CM4" t="n">
-        <v>55</v>
+        <v>5.027652086475616</v>
       </c>
       <c r="CN4" t="n">
-        <v>58</v>
+        <v>3.017501508750755</v>
       </c>
       <c r="CO4" t="n">
-        <v>61</v>
+        <v>3.018412315122246</v>
       </c>
       <c r="CP4" t="n">
-        <v>71</v>
+        <v>10.07150770470339</v>
       </c>
       <c r="CQ4" t="n">
-        <v>79</v>
+        <v>8.06370325572019</v>
       </c>
       <c r="CR4" t="n">
-        <v>84</v>
+        <v>5.042355788624445</v>
       </c>
       <c r="CS4" t="n">
-        <v>89</v>
+        <v>5.044899606497831</v>
       </c>
       <c r="CT4" t="n">
-        <v>99</v>
+        <v>10.0999899000101</v>
       </c>
       <c r="CU4" t="n">
-        <v>107</v>
+        <v>8.086525826341857</v>
       </c>
       <c r="CV4" t="n">
-        <v>114</v>
+        <v>7.080720210398543</v>
       </c>
       <c r="CW4" t="n">
-        <v>128</v>
+        <v>14.18152350081037</v>
       </c>
     </row>
     <row r="5" spans="1:101">
@@ -1758,145 +1758,145 @@
         <v>0</v>
       </c>
       <c r="BC5" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="BD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="BL5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BM5" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="BN5" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="BO5" t="n">
-        <v>8</v>
+        <v>4.00320256204964</v>
       </c>
       <c r="BP5" t="n">
-        <v>12</v>
+        <v>4.004805766920304</v>
       </c>
       <c r="BQ5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="BR5" t="n">
-        <v>16</v>
+        <v>4.006410256410256</v>
       </c>
       <c r="BS5" t="n">
-        <v>19</v>
+        <v>3.00571085061617</v>
       </c>
       <c r="BT5" t="n">
-        <v>24</v>
+        <v>5.012028869286287</v>
       </c>
       <c r="BU5" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="BV5" t="n">
-        <v>25</v>
+        <v>1.00250626566416</v>
       </c>
       <c r="BW5" t="n">
-        <v>28</v>
+        <v>3.008423586040915</v>
       </c>
       <c r="BX5" t="n">
-        <v>34</v>
+        <v>6.020469596628537</v>
       </c>
       <c r="BY5" t="n">
-        <v>38</v>
+        <v>4.015257980325236</v>
       </c>
       <c r="BZ5" t="n">
-        <v>44</v>
+        <v>6.026516673362796</v>
       </c>
       <c r="CA5" t="n">
-        <v>55</v>
+        <v>11.06083459024635</v>
       </c>
       <c r="CB5" t="n">
-        <v>63</v>
+        <v>8.050719533058267</v>
       </c>
       <c r="CC5" t="n">
-        <v>70</v>
+        <v>7.049345417925478</v>
       </c>
       <c r="CD5" t="n">
-        <v>82</v>
+        <v>12.09921355111918</v>
       </c>
       <c r="CE5" t="n">
-        <v>94</v>
+        <v>12.11387038158692</v>
       </c>
       <c r="CF5" t="n">
-        <v>101</v>
+        <v>7.071421355692494</v>
       </c>
       <c r="CG5" t="n">
-        <v>109</v>
+        <v>8.088160954402992</v>
       </c>
       <c r="CH5" t="n">
-        <v>120</v>
+        <v>11.1336032388664</v>
       </c>
       <c r="CI5" t="n">
-        <v>138</v>
+        <v>18.25187588724397</v>
       </c>
       <c r="CJ5" t="n">
-        <v>149</v>
+        <v>11.16637904781241</v>
       </c>
       <c r="CK5" t="n">
-        <v>162</v>
+        <v>13.21406789997967</v>
       </c>
       <c r="CL5" t="n">
-        <v>175</v>
+        <v>13.23155216284987</v>
       </c>
       <c r="CM5" t="n">
-        <v>187</v>
+        <v>12.22867624579639</v>
       </c>
       <c r="CN5" t="n">
-        <v>205</v>
+        <v>18.37672281776416</v>
       </c>
       <c r="CO5" t="n">
-        <v>217</v>
+        <v>12.26617601962588</v>
       </c>
       <c r="CP5" t="n">
-        <v>235</v>
+        <v>18.4331797235023</v>
       </c>
       <c r="CQ5" t="n">
-        <v>246</v>
+        <v>11.27742464629896</v>
       </c>
       <c r="CR5" t="n">
-        <v>268</v>
+        <v>22.60583641594739</v>
       </c>
       <c r="CS5" t="n">
-        <v>280</v>
+        <v>12.34567901234568</v>
       </c>
       <c r="CT5" t="n">
-        <v>309</v>
+        <v>29.92467237643174</v>
       </c>
       <c r="CU5" t="n">
-        <v>322</v>
+        <v>13.43252738169043</v>
       </c>
       <c r="CV5" t="n">
-        <v>347</v>
+        <v>25.89868434683518</v>
       </c>
       <c r="CW5" t="n">
-        <v>364</v>
+        <v>17.64217517642175</v>
       </c>
     </row>
     <row r="6" spans="1:101">
@@ -2048,160 +2048,160 @@
         <v>0</v>
       </c>
       <c r="AX6" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AY6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE6" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="BF6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BG6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BH6" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="BI6" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="BJ6" t="n">
-        <v>6</v>
+        <v>2.001200720432259</v>
       </c>
       <c r="BK6" t="n">
-        <v>9</v>
+        <v>3.00270243218897</v>
       </c>
       <c r="BL6" t="n">
-        <v>12</v>
+        <v>3.003604325190228</v>
       </c>
       <c r="BM6" t="n">
-        <v>18</v>
+        <v>6.010819475055099</v>
       </c>
       <c r="BN6" t="n">
-        <v>22</v>
+        <v>4.008819402685909</v>
       </c>
       <c r="BO6" t="n">
-        <v>29</v>
+        <v>7.020359041219537</v>
       </c>
       <c r="BP6" t="n">
-        <v>32</v>
+        <v>3.009630818619582</v>
       </c>
       <c r="BQ6" t="n">
-        <v>33</v>
+        <v>1.003310926055985</v>
       </c>
       <c r="BR6" t="n">
-        <v>38</v>
+        <v>5.019072475406546</v>
       </c>
       <c r="BS6" t="n">
-        <v>49</v>
+        <v>11.05416541051151</v>
       </c>
       <c r="BT6" t="n">
-        <v>63</v>
+        <v>14.08875918285197</v>
       </c>
       <c r="BU6" t="n">
-        <v>67</v>
+        <v>4.026980771166818</v>
       </c>
       <c r="BV6" t="n">
-        <v>72</v>
+        <v>5.036261079774375</v>
       </c>
       <c r="BW6" t="n">
-        <v>87</v>
+        <v>15.13164531423383</v>
       </c>
       <c r="BX6" t="n">
-        <v>98</v>
+        <v>11.10886689557665</v>
       </c>
       <c r="BY6" t="n">
-        <v>107</v>
+        <v>9.097341554634589</v>
       </c>
       <c r="BZ6" t="n">
-        <v>122</v>
+        <v>15.18526017412432</v>
       </c>
       <c r="CA6" t="n">
-        <v>142</v>
+        <v>20.28809089064719</v>
       </c>
       <c r="CB6" t="n">
-        <v>159</v>
+        <v>17.27466720861701</v>
       </c>
       <c r="CC6" t="n">
-        <v>173</v>
+        <v>14.24646382415793</v>
       </c>
       <c r="CD6" t="n">
-        <v>187</v>
+        <v>14.26678895342912</v>
       </c>
       <c r="CE6" t="n">
-        <v>204</v>
+        <v>17.35402204981625</v>
       </c>
       <c r="CF6" t="n">
-        <v>221</v>
+        <v>17.38419061253707</v>
       </c>
       <c r="CG6" t="n">
-        <v>238</v>
+        <v>17.41446424912928</v>
       </c>
       <c r="CH6" t="n">
-        <v>260</v>
+        <v>22.58726899383984</v>
       </c>
       <c r="CI6" t="n">
-        <v>283</v>
+        <v>23.66985695173407</v>
       </c>
       <c r="CJ6" t="n">
-        <v>308</v>
+        <v>25.79446966570367</v>
       </c>
       <c r="CK6" t="n">
-        <v>336</v>
+        <v>28.97350993377484</v>
       </c>
       <c r="CL6" t="n">
-        <v>363</v>
+        <v>28.01701774411124</v>
       </c>
       <c r="CM6" t="n">
-        <v>392</v>
+        <v>30.18318068276437</v>
       </c>
       <c r="CN6" t="n">
-        <v>411</v>
+        <v>19.814370633017</v>
       </c>
       <c r="CO6" t="n">
-        <v>443</v>
+        <v>33.48331066234174</v>
       </c>
       <c r="CP6" t="n">
-        <v>470</v>
+        <v>28.33158447009444</v>
       </c>
       <c r="CQ6" t="n">
-        <v>492</v>
+        <v>23.13840976020194</v>
       </c>
       <c r="CR6" t="n">
-        <v>512</v>
+        <v>21.07925801011804</v>
       </c>
       <c r="CS6" t="n">
-        <v>539</v>
+        <v>28.53820949159708</v>
       </c>
       <c r="CT6" t="n">
-        <v>564</v>
+        <v>26.494277236117</v>
       </c>
       <c r="CU6" t="n">
-        <v>595</v>
+        <v>32.9611908559277</v>
       </c>
       <c r="CV6" t="n">
-        <v>623</v>
+        <v>29.86029647008638</v>
       </c>
       <c r="CW6" t="n">
-        <v>643</v>
+        <v>21.37437212781875</v>
       </c>
     </row>
     <row r="7" spans="1:101">
@@ -2338,175 +2338,175 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="AT7" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="AU7" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="AV7" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>2.001400980686481</v>
       </c>
       <c r="AX7" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AY7" t="n">
-        <v>10</v>
+        <v>3.003003003003003</v>
       </c>
       <c r="AZ7" t="n">
-        <v>12</v>
+        <v>2.002402883460152</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>2.002803925495694</v>
       </c>
       <c r="BB7" t="n">
-        <v>17</v>
+        <v>3.005108684764099</v>
       </c>
       <c r="BC7" t="n">
-        <v>22</v>
+        <v>5.011024253357387</v>
       </c>
       <c r="BD7" t="n">
-        <v>25</v>
+        <v>3.007518796992481</v>
       </c>
       <c r="BE7" t="n">
-        <v>28</v>
+        <v>3.008423586040915</v>
       </c>
       <c r="BF7" t="n">
-        <v>33</v>
+        <v>5.016554630279924</v>
       </c>
       <c r="BG7" t="n">
-        <v>34</v>
+        <v>1.003411599438089</v>
       </c>
       <c r="BH7" t="n">
-        <v>47</v>
+        <v>13.06138852607254</v>
       </c>
       <c r="BI7" t="n">
-        <v>49</v>
+        <v>2.009848256456638</v>
       </c>
       <c r="BJ7" t="n">
-        <v>59</v>
+        <v>10.05935016597928</v>
       </c>
       <c r="BK7" t="n">
-        <v>66</v>
+        <v>7.046506945842562</v>
       </c>
       <c r="BL7" t="n">
-        <v>82</v>
+        <v>16.13228473482557</v>
       </c>
       <c r="BM7" t="n">
-        <v>89</v>
+        <v>7.062859449096964</v>
       </c>
       <c r="BN7" t="n">
-        <v>99</v>
+        <v>10.0999899000101</v>
       </c>
       <c r="BO7" t="n">
-        <v>107</v>
+        <v>8.086525826341857</v>
       </c>
       <c r="BP7" t="n">
-        <v>121</v>
+        <v>14.17147484563215</v>
       </c>
       <c r="BQ7" t="n">
-        <v>135</v>
+        <v>14.19158641662443</v>
       </c>
       <c r="BR7" t="n">
-        <v>150</v>
+        <v>15.22842639593909</v>
       </c>
       <c r="BS7" t="n">
-        <v>165</v>
+        <v>15.25165226232842</v>
       </c>
       <c r="BT7" t="n">
-        <v>183</v>
+        <v>18.33554038912091</v>
       </c>
       <c r="BU7" t="n">
-        <v>204</v>
+        <v>21.43732135565537</v>
       </c>
       <c r="BV7" t="n">
-        <v>230</v>
+        <v>26.61207778915046</v>
       </c>
       <c r="BW7" t="n">
-        <v>244</v>
+        <v>14.35014350143502</v>
       </c>
       <c r="BX7" t="n">
-        <v>261</v>
+        <v>17.45559092309272</v>
       </c>
       <c r="BY7" t="n">
-        <v>284</v>
+        <v>23.67229312474269</v>
       </c>
       <c r="BZ7" t="n">
-        <v>313</v>
+        <v>29.9370290079488</v>
       </c>
       <c r="CA7" t="n">
-        <v>330</v>
+        <v>17.58014477766287</v>
       </c>
       <c r="CB7" t="n">
-        <v>364</v>
+        <v>35.2843503528435</v>
       </c>
       <c r="CC7" t="n">
-        <v>395</v>
+        <v>32.27485684539302</v>
       </c>
       <c r="CD7" t="n">
-        <v>420</v>
+        <v>26.09603340292276</v>
       </c>
       <c r="CE7" t="n">
-        <v>450</v>
+        <v>31.41361256544503</v>
       </c>
       <c r="CF7" t="n">
-        <v>472</v>
+        <v>23.08984047019312</v>
       </c>
       <c r="CG7" t="n">
-        <v>492</v>
+        <v>21.03491796381994</v>
       </c>
       <c r="CH7" t="n">
-        <v>525</v>
+        <v>34.82849604221636</v>
       </c>
       <c r="CI7" t="n">
-        <v>562</v>
+        <v>39.20322102140283</v>
       </c>
       <c r="CJ7" t="n">
-        <v>585</v>
+        <v>24.42910249601699</v>
       </c>
       <c r="CK7" t="n">
-        <v>623</v>
+        <v>40.5246880665458</v>
       </c>
       <c r="CL7" t="n">
-        <v>648</v>
+        <v>26.732249786142</v>
       </c>
       <c r="CM7" t="n">
-        <v>679</v>
+        <v>33.25823409505418</v>
       </c>
       <c r="CN7" t="n">
-        <v>709</v>
+        <v>32.28931223764933</v>
       </c>
       <c r="CO7" t="n">
-        <v>742</v>
+        <v>35.64484769928711</v>
       </c>
       <c r="CP7" t="n">
-        <v>765</v>
+        <v>24.90525175961018</v>
       </c>
       <c r="CQ7" t="n">
-        <v>800</v>
+        <v>38.04347826086957</v>
       </c>
       <c r="CR7" t="n">
-        <v>835</v>
+        <v>38.18876159301691</v>
       </c>
       <c r="CS7" t="n">
-        <v>872</v>
+        <v>40.53461875547765</v>
       </c>
       <c r="CT7" t="n">
-        <v>903</v>
+        <v>34.07716829724085</v>
       </c>
       <c r="CU7" t="n">
-        <v>933</v>
+        <v>33.08701885960075</v>
       </c>
       <c r="CV7" t="n">
-        <v>958</v>
+        <v>27.6487502764875</v>
       </c>
       <c r="CW7" t="n">
-        <v>990</v>
+        <v>35.51609322974473</v>
       </c>
     </row>
     <row r="8" spans="1:101">
@@ -2646,172 +2646,172 @@
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AU8" t="n">
-        <v>3</v>
+        <v>2.000600180054016</v>
       </c>
       <c r="AV8" t="n">
-        <v>7</v>
+        <v>4.002801961372962</v>
       </c>
       <c r="AW8" t="n">
-        <v>9</v>
+        <v>2.001801621459313</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>2.002202422664932</v>
       </c>
       <c r="AY8" t="n">
-        <v>13</v>
+        <v>2.00260338439972</v>
       </c>
       <c r="AZ8" t="n">
-        <v>16</v>
+        <v>3.004807692307693</v>
       </c>
       <c r="BA8" t="n">
-        <v>19</v>
+        <v>3.00571085061617</v>
       </c>
       <c r="BB8" t="n">
-        <v>28</v>
+        <v>9.025270758122744</v>
       </c>
       <c r="BC8" t="n">
-        <v>34</v>
+        <v>6.020469596628537</v>
       </c>
       <c r="BD8" t="n">
-        <v>43</v>
+        <v>9.038867128653209</v>
       </c>
       <c r="BE8" t="n">
-        <v>55</v>
+        <v>12.06636500754148</v>
       </c>
       <c r="BF8" t="n">
-        <v>66</v>
+        <v>11.07308234346688</v>
       </c>
       <c r="BG8" t="n">
-        <v>77</v>
+        <v>11.0853572508314</v>
       </c>
       <c r="BH8" t="n">
-        <v>85</v>
+        <v>8.068582955118506</v>
       </c>
       <c r="BI8" t="n">
-        <v>102</v>
+        <v>17.17518690644575</v>
       </c>
       <c r="BJ8" t="n">
-        <v>116</v>
+        <v>14.1643059490085</v>
       </c>
       <c r="BK8" t="n">
-        <v>129</v>
+        <v>13.16989160166143</v>
       </c>
       <c r="BL8" t="n">
-        <v>155</v>
+        <v>26.40934484509904</v>
       </c>
       <c r="BM8" t="n">
-        <v>176</v>
+        <v>21.37622149837134</v>
       </c>
       <c r="BN8" t="n">
-        <v>198</v>
+        <v>22.44439910222404</v>
       </c>
       <c r="BO8" t="n">
-        <v>224</v>
+        <v>26.59574468085106</v>
       </c>
       <c r="BP8" t="n">
-        <v>247</v>
+        <v>23.58248743976213</v>
       </c>
       <c r="BQ8" t="n">
-        <v>266</v>
+        <v>19.51921101294432</v>
       </c>
       <c r="BR8" t="n">
-        <v>290</v>
+        <v>24.7167868177137</v>
       </c>
       <c r="BS8" t="n">
-        <v>317</v>
+        <v>27.88392027264278</v>
       </c>
       <c r="BT8" t="n">
-        <v>348</v>
+        <v>32.117695814339</v>
       </c>
       <c r="BU8" t="n">
-        <v>380</v>
+        <v>33.26403326403327</v>
       </c>
       <c r="BV8" t="n">
-        <v>406</v>
+        <v>27.10027100271003</v>
       </c>
       <c r="BW8" t="n">
-        <v>437</v>
+        <v>32.41660566767751</v>
       </c>
       <c r="BX8" t="n">
-        <v>456</v>
+        <v>19.90779547359598</v>
       </c>
       <c r="BY8" t="n">
-        <v>501</v>
+        <v>47.37340772712918</v>
       </c>
       <c r="BZ8" t="n">
-        <v>540</v>
+        <v>41.22621564482029</v>
       </c>
       <c r="CA8" t="n">
-        <v>566</v>
+        <v>27.55988976044096</v>
       </c>
       <c r="CB8" t="n">
-        <v>596</v>
+        <v>31.90131858783496</v>
       </c>
       <c r="CC8" t="n">
-        <v>621</v>
+        <v>26.65529374133703</v>
       </c>
       <c r="CD8" t="n">
-        <v>656</v>
+        <v>37.45719178082192</v>
       </c>
       <c r="CE8" t="n">
-        <v>681</v>
+        <v>26.82691275887971</v>
       </c>
       <c r="CF8" t="n">
-        <v>724</v>
+        <v>46.35618801207416</v>
       </c>
       <c r="CG8" t="n">
-        <v>756</v>
+        <v>34.61704889658157</v>
       </c>
       <c r="CH8" t="n">
-        <v>787</v>
+        <v>33.64810593726256</v>
       </c>
       <c r="CI8" t="n">
-        <v>818</v>
+        <v>33.76170768895665</v>
       </c>
       <c r="CJ8" t="n">
-        <v>846</v>
+        <v>30.5877212147695</v>
       </c>
       <c r="CK8" t="n">
-        <v>878</v>
+        <v>35.08002631001973</v>
       </c>
       <c r="CL8" t="n">
-        <v>899</v>
+        <v>23.07438742995275</v>
       </c>
       <c r="CM8" t="n">
-        <v>918</v>
+        <v>20.92050209205021</v>
       </c>
       <c r="CN8" t="n">
-        <v>949</v>
+        <v>34.25035907634516</v>
       </c>
       <c r="CO8" t="n">
-        <v>981</v>
+        <v>35.48065195697971</v>
       </c>
       <c r="CP8" t="n">
-        <v>1007</v>
+        <v>28.91137551428889</v>
       </c>
       <c r="CQ8" t="n">
-        <v>1047</v>
+        <v>44.67776164414163</v>
       </c>
       <c r="CR8" t="n">
-        <v>1077</v>
+        <v>33.62097949120251</v>
       </c>
       <c r="CS8" t="n">
-        <v>1097</v>
+        <v>22.46433786364147</v>
       </c>
       <c r="CT8" t="n">
-        <v>1124</v>
+        <v>30.41910770617395</v>
       </c>
       <c r="CU8" t="n">
-        <v>1159</v>
+        <v>39.5882818685669</v>
       </c>
       <c r="CV8" t="n">
-        <v>1200</v>
+        <v>46.59090909090909</v>
       </c>
       <c r="CW8" t="n">
-        <v>1231</v>
+        <v>35.35180750370624</v>
       </c>
     </row>
     <row r="9" spans="1:101">
@@ -2927,196 +2927,196 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="AM9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AO9" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="AP9" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AR9" t="n">
-        <v>8</v>
+        <v>3.00240192153723</v>
       </c>
       <c r="AS9" t="n">
-        <v>10</v>
+        <v>2.002002002002002</v>
       </c>
       <c r="AT9" t="n">
-        <v>12</v>
+        <v>2.002402883460152</v>
       </c>
       <c r="AU9" t="n">
-        <v>19</v>
+        <v>7.013325318104398</v>
       </c>
       <c r="AV9" t="n">
-        <v>26</v>
+        <v>7.018247443352717</v>
       </c>
       <c r="AW9" t="n">
-        <v>32</v>
+        <v>6.019261637239165</v>
       </c>
       <c r="AX9" t="n">
-        <v>40</v>
+        <v>8.032128514056225</v>
       </c>
       <c r="AY9" t="n">
-        <v>48</v>
+        <v>8.038585209003216</v>
       </c>
       <c r="AZ9" t="n">
-        <v>54</v>
+        <v>6.032575909913533</v>
       </c>
       <c r="BA9" t="n">
-        <v>68</v>
+        <v>14.09585179218687</v>
       </c>
       <c r="BB9" t="n">
-        <v>89</v>
+        <v>21.18857834729089</v>
       </c>
       <c r="BC9" t="n">
-        <v>106</v>
+        <v>17.18213058419244</v>
       </c>
       <c r="BD9" t="n">
-        <v>122</v>
+        <v>16.19761085239927</v>
       </c>
       <c r="BE9" t="n">
-        <v>136</v>
+        <v>14.19302514193025</v>
       </c>
       <c r="BF9" t="n">
-        <v>155</v>
+        <v>19.29913661757237</v>
       </c>
       <c r="BG9" t="n">
-        <v>175</v>
+        <v>20.35623409669211</v>
       </c>
       <c r="BH9" t="n">
-        <v>201</v>
+        <v>26.5333197265027</v>
       </c>
       <c r="BI9" t="n">
-        <v>226</v>
+        <v>25.5780642520974</v>
       </c>
       <c r="BJ9" t="n">
-        <v>243</v>
+        <v>17.42338833657887</v>
       </c>
       <c r="BK9" t="n">
-        <v>266</v>
+        <v>23.62851859461681</v>
       </c>
       <c r="BL9" t="n">
-        <v>296</v>
+        <v>30.91508656224238</v>
       </c>
       <c r="BM9" t="n">
-        <v>329</v>
+        <v>34.12263468100507</v>
       </c>
       <c r="BN9" t="n">
-        <v>360</v>
+        <v>32.15767634854772</v>
       </c>
       <c r="BO9" t="n">
-        <v>392</v>
+        <v>33.30557868442964</v>
       </c>
       <c r="BP9" t="n">
-        <v>424</v>
+        <v>33.41687552213868</v>
       </c>
       <c r="BQ9" t="n">
-        <v>461</v>
+        <v>38.78813292797987</v>
       </c>
       <c r="BR9" t="n">
-        <v>500</v>
+        <v>41.05263157894737</v>
       </c>
       <c r="BS9" t="n">
-        <v>539</v>
+        <v>41.22185815452912</v>
       </c>
       <c r="BT9" t="n">
-        <v>573</v>
+        <v>36.06661716346664</v>
       </c>
       <c r="BU9" t="n">
-        <v>606</v>
+        <v>35.1288056206089</v>
       </c>
       <c r="BV9" t="n">
-        <v>632</v>
+        <v>27.75405636208369</v>
       </c>
       <c r="BW9" t="n">
-        <v>661</v>
+        <v>31.05257522218653</v>
       </c>
       <c r="BX9" t="n">
-        <v>704</v>
+        <v>46.25645438898451</v>
       </c>
       <c r="BY9" t="n">
-        <v>732</v>
+        <v>30.21148036253776</v>
       </c>
       <c r="BZ9" t="n">
-        <v>766</v>
+        <v>36.82044617717133</v>
       </c>
       <c r="CA9" t="n">
-        <v>806</v>
+        <v>43.50663476180117</v>
       </c>
       <c r="CB9" t="n">
-        <v>839</v>
+        <v>36.02226831131972</v>
       </c>
       <c r="CC9" t="n">
-        <v>873</v>
+        <v>37.25210912676673</v>
       </c>
       <c r="CD9" t="n">
-        <v>902</v>
+        <v>31.87513739283359</v>
       </c>
       <c r="CE9" t="n">
-        <v>933</v>
+        <v>34.18991948825411</v>
       </c>
       <c r="CF9" t="n">
-        <v>967</v>
+        <v>37.63976530499281</v>
       </c>
       <c r="CG9" t="n">
-        <v>1000</v>
+        <v>36.66666666666666</v>
       </c>
       <c r="CH9" t="n">
-        <v>1022</v>
+        <v>24.50434395188238</v>
       </c>
       <c r="CI9" t="n">
-        <v>1052</v>
+        <v>33.52704514975414</v>
       </c>
       <c r="CJ9" t="n">
-        <v>1090</v>
+        <v>42.64870931537598</v>
       </c>
       <c r="CK9" t="n">
-        <v>1114</v>
+        <v>27.00877785280216</v>
       </c>
       <c r="CL9" t="n">
-        <v>1154</v>
+        <v>45.21817770743839</v>
       </c>
       <c r="CM9" t="n">
-        <v>1193</v>
+        <v>44.28295673895764</v>
       </c>
       <c r="CN9" t="n">
-        <v>1214</v>
+        <v>23.90166173457774</v>
       </c>
       <c r="CO9" t="n">
-        <v>1239</v>
+        <v>28.53555530190618</v>
       </c>
       <c r="CP9" t="n">
-        <v>1271</v>
+        <v>36.65941115820827</v>
       </c>
       <c r="CQ9" t="n">
-        <v>1304</v>
+        <v>37.94848206071757</v>
       </c>
       <c r="CR9" t="n">
-        <v>1334</v>
+        <v>34.61804754211862</v>
       </c>
       <c r="CS9" t="n">
-        <v>1374</v>
+        <v>46.37143519591932</v>
       </c>
       <c r="CT9" t="n">
-        <v>1395</v>
+        <v>24.40441603718768</v>
       </c>
       <c r="CU9" t="n">
-        <v>1421</v>
+        <v>30.30656253642616</v>
       </c>
       <c r="CV9" t="n">
-        <v>1447</v>
+        <v>30.39869051794692</v>
       </c>
       <c r="CW9" t="n">
-        <v>1467</v>
+        <v>23.43841556310793</v>
       </c>
     </row>
     <row r="10" spans="1:101">
@@ -3229,199 +3229,199 @@
         <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="AL10" t="n">
-        <v>4</v>
+        <v>2.000800320128052</v>
       </c>
       <c r="AM10" t="n">
-        <v>5</v>
+        <v>1.000500250125063</v>
       </c>
       <c r="AN10" t="n">
-        <v>8</v>
+        <v>3.00240192153723</v>
       </c>
       <c r="AO10" t="n">
-        <v>11</v>
+        <v>3.003303633997398</v>
       </c>
       <c r="AP10" t="n">
-        <v>14</v>
+        <v>3.004205888243541</v>
       </c>
       <c r="AQ10" t="n">
-        <v>15</v>
+        <v>1.00150225338007</v>
       </c>
       <c r="AR10" t="n">
-        <v>23</v>
+        <v>8.01844241756039</v>
       </c>
       <c r="AS10" t="n">
-        <v>29</v>
+        <v>6.017450606759603</v>
       </c>
       <c r="AT10" t="n">
-        <v>35</v>
+        <v>6.021073758153537</v>
       </c>
       <c r="AU10" t="n">
-        <v>48</v>
+        <v>13.06270096463022</v>
       </c>
       <c r="AV10" t="n">
-        <v>55</v>
+        <v>7.038712921065862</v>
       </c>
       <c r="AW10" t="n">
-        <v>66</v>
+        <v>11.07308234346688</v>
       </c>
       <c r="AX10" t="n">
-        <v>82</v>
+        <v>16.13228473482557</v>
       </c>
       <c r="AY10" t="n">
-        <v>97</v>
+        <v>15.14692517418964</v>
       </c>
       <c r="AZ10" t="n">
-        <v>123</v>
+        <v>26.32378252505822</v>
       </c>
       <c r="BA10" t="n">
-        <v>145</v>
+        <v>22.32369355657027</v>
       </c>
       <c r="BB10" t="n">
-        <v>165</v>
+        <v>20.33553634977122</v>
       </c>
       <c r="BC10" t="n">
-        <v>183</v>
+        <v>18.33554038912091</v>
       </c>
       <c r="BD10" t="n">
-        <v>216</v>
+        <v>33.72853638593622</v>
       </c>
       <c r="BE10" t="n">
-        <v>241</v>
+        <v>25.61737882979813</v>
       </c>
       <c r="BF10" t="n">
-        <v>263</v>
+        <v>22.59422820170484</v>
       </c>
       <c r="BG10" t="n">
-        <v>294</v>
+        <v>31.93900679991758</v>
       </c>
       <c r="BH10" t="n">
-        <v>328</v>
+        <v>35.15301902398677</v>
       </c>
       <c r="BI10" t="n">
-        <v>352</v>
+        <v>24.87562189054726</v>
       </c>
       <c r="BJ10" t="n">
-        <v>387</v>
+        <v>36.40902943930094</v>
       </c>
       <c r="BK10" t="n">
-        <v>423</v>
+        <v>37.59005951759423</v>
       </c>
       <c r="BL10" t="n">
-        <v>458</v>
+        <v>36.6799413120939</v>
       </c>
       <c r="BM10" t="n">
-        <v>493</v>
+        <v>36.8149784369412</v>
       </c>
       <c r="BN10" t="n">
-        <v>526</v>
+        <v>34.83217226092464</v>
       </c>
       <c r="BO10" t="n">
-        <v>562</v>
+        <v>38.14367450731087</v>
       </c>
       <c r="BP10" t="n">
-        <v>591</v>
+        <v>30.82155383143798</v>
       </c>
       <c r="BQ10" t="n">
-        <v>628</v>
+        <v>39.47930004268033</v>
       </c>
       <c r="BR10" t="n">
-        <v>659</v>
+        <v>33.18702494379617</v>
       </c>
       <c r="BS10" t="n">
-        <v>692</v>
+        <v>35.45337344220026</v>
       </c>
       <c r="BT10" t="n">
-        <v>728</v>
+        <v>38.82657463330457</v>
       </c>
       <c r="BU10" t="n">
-        <v>761</v>
+        <v>35.71815131507739</v>
       </c>
       <c r="BV10" t="n">
-        <v>801</v>
+        <v>43.48298728122622</v>
       </c>
       <c r="BW10" t="n">
-        <v>833</v>
+        <v>34.90782153376241</v>
       </c>
       <c r="BX10" t="n">
-        <v>867</v>
+        <v>37.22763604511113</v>
       </c>
       <c r="BY10" t="n">
-        <v>901</v>
+        <v>37.36674359819761</v>
       </c>
       <c r="BZ10" t="n">
-        <v>945</v>
+        <v>48.59193815571508</v>
       </c>
       <c r="CA10" t="n">
-        <v>977</v>
+        <v>35.46492297462041</v>
       </c>
       <c r="CB10" t="n">
-        <v>1005</v>
+        <v>31.1284046692607</v>
       </c>
       <c r="CC10" t="n">
-        <v>1049</v>
+        <v>49.15651882471232</v>
       </c>
       <c r="CD10" t="n">
-        <v>1078</v>
+        <v>32.50392288724501</v>
       </c>
       <c r="CE10" t="n">
-        <v>1113</v>
+        <v>39.38336896590526</v>
       </c>
       <c r="CF10" t="n">
-        <v>1140</v>
+        <v>30.47404063205418</v>
       </c>
       <c r="CG10" t="n">
-        <v>1172</v>
+        <v>36.24830086089715</v>
       </c>
       <c r="CH10" t="n">
-        <v>1208</v>
+        <v>40.94631483166515</v>
       </c>
       <c r="CI10" t="n">
-        <v>1236</v>
+        <v>31.94888178913738</v>
       </c>
       <c r="CJ10" t="n">
-        <v>1263</v>
+        <v>30.90305596886803</v>
       </c>
       <c r="CK10" t="n">
-        <v>1295</v>
+        <v>36.76048248133257</v>
       </c>
       <c r="CL10" t="n">
-        <v>1318</v>
+        <v>26.49159179912462</v>
       </c>
       <c r="CM10" t="n">
-        <v>1349</v>
+        <v>35.83400762917582</v>
       </c>
       <c r="CN10" t="n">
-        <v>1377</v>
+        <v>32.47129769221849</v>
       </c>
       <c r="CO10" t="n">
-        <v>1398</v>
+        <v>24.41292722622646</v>
       </c>
       <c r="CP10" t="n">
-        <v>1418</v>
+        <v>23.30459100442787</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1452</v>
+        <v>39.7753860552176</v>
       </c>
       <c r="CR10" t="n">
-        <v>1481</v>
+        <v>34.041554173025</v>
       </c>
       <c r="CS10" t="n">
-        <v>1505</v>
+        <v>28.25191288993526</v>
       </c>
       <c r="CT10" t="n">
-        <v>1528</v>
+        <v>27.14825306893296</v>
       </c>
       <c r="CU10" t="n">
-        <v>1556</v>
+        <v>33.15963998105163</v>
       </c>
       <c r="CV10" t="n">
-        <v>1583</v>
+        <v>32.07793750742545</v>
       </c>
       <c r="CW10" t="n">
-        <v>1617</v>
+        <v>40.55827269473935</v>
       </c>
     </row>
     <row r="11" spans="1:101">
@@ -3495,238 +3495,238 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>1</v>
+        <v>1.000100010001</v>
       </c>
       <c r="Y11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>2</v>
+        <v>1.000200040008002</v>
       </c>
       <c r="AB11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>3</v>
+        <v>1.000300090027008</v>
       </c>
       <c r="AH11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>4</v>
+        <v>1.000400160064026</v>
       </c>
       <c r="AJ11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>7</v>
+        <v>3.002101471029721</v>
       </c>
       <c r="AL11" t="n">
-        <v>10</v>
+        <v>3.003003003003003</v>
       </c>
       <c r="AM11" t="n">
-        <v>11</v>
+        <v>1.001101211332466</v>
       </c>
       <c r="AN11" t="n">
-        <v>14</v>
+        <v>3.004205888243541</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>6.012024048096192</v>
       </c>
       <c r="AP11" t="n">
-        <v>26</v>
+        <v>6.0156406657309</v>
       </c>
       <c r="AQ11" t="n">
-        <v>34</v>
+        <v>8.027292795504716</v>
       </c>
       <c r="AR11" t="n">
-        <v>50</v>
+        <v>16.08040201005025</v>
       </c>
       <c r="AS11" t="n">
-        <v>61</v>
+        <v>11.0675118221149</v>
       </c>
       <c r="AT11" t="n">
-        <v>75</v>
+        <v>14.10579345088161</v>
       </c>
       <c r="AU11" t="n">
-        <v>95</v>
+        <v>20.19182231196366</v>
       </c>
       <c r="AV11" t="n">
-        <v>113</v>
+        <v>18.20572468898554</v>
       </c>
       <c r="AW11" t="n">
-        <v>133</v>
+        <v>20.26958548697679</v>
       </c>
       <c r="AX11" t="n">
-        <v>160</v>
+        <v>27.4390243902439</v>
       </c>
       <c r="AY11" t="n">
-        <v>190</v>
+        <v>30.58103975535168</v>
       </c>
       <c r="AZ11" t="n">
-        <v>227</v>
+        <v>37.85940857464443</v>
       </c>
       <c r="BA11" t="n">
-        <v>263</v>
+        <v>36.97237342097155</v>
       </c>
       <c r="BB11" t="n">
-        <v>290</v>
+        <v>27.80638516992791</v>
       </c>
       <c r="BC11" t="n">
-        <v>324</v>
+        <v>35.13848697809012</v>
       </c>
       <c r="BD11" t="n">
-        <v>368</v>
+        <v>45.68106312292359</v>
       </c>
       <c r="BE11" t="n">
-        <v>407</v>
+        <v>40.65464401125821</v>
       </c>
       <c r="BF11" t="n">
-        <v>452</v>
+        <v>47.13028906577293</v>
       </c>
       <c r="BG11" t="n">
-        <v>511</v>
+        <v>62.17725787754242</v>
       </c>
       <c r="BH11" t="n">
-        <v>564</v>
+        <v>56.16786774056803</v>
       </c>
       <c r="BI11" t="n">
-        <v>607</v>
+        <v>45.77877142552965</v>
       </c>
       <c r="BJ11" t="n">
-        <v>646</v>
+        <v>41.69339320076972</v>
       </c>
       <c r="BK11" t="n">
-        <v>687</v>
+        <v>44.0244819070117</v>
       </c>
       <c r="BL11" t="n">
-        <v>734</v>
+        <v>50.72307360241744</v>
       </c>
       <c r="BM11" t="n">
-        <v>785</v>
+        <v>55.34454693434617</v>
       </c>
       <c r="BN11" t="n">
-        <v>821</v>
+        <v>39.21995860115481</v>
       </c>
       <c r="BO11" t="n">
-        <v>859</v>
+        <v>41.57094409801991</v>
       </c>
       <c r="BP11" t="n">
-        <v>905</v>
+        <v>50.57724024189115</v>
       </c>
       <c r="BQ11" t="n">
-        <v>948</v>
+        <v>47.50331418471056</v>
       </c>
       <c r="BR11" t="n">
-        <v>986</v>
+        <v>42.15664521854892</v>
       </c>
       <c r="BS11" t="n">
-        <v>1024</v>
+        <v>42.33511586452763</v>
       </c>
       <c r="BT11" t="n">
-        <v>1063</v>
+        <v>43.6388049681101</v>
       </c>
       <c r="BU11" t="n">
-        <v>1099</v>
+        <v>40.4448938321537</v>
       </c>
       <c r="BV11" t="n">
-        <v>1125</v>
+        <v>29.29577464788732</v>
       </c>
       <c r="BW11" t="n">
-        <v>1157</v>
+        <v>36.18681442949225</v>
       </c>
       <c r="BX11" t="n">
-        <v>1193</v>
+        <v>40.87657545134552</v>
       </c>
       <c r="BY11" t="n">
-        <v>1234</v>
+        <v>46.77161761350673</v>
       </c>
       <c r="BZ11" t="n">
-        <v>1265</v>
+        <v>35.48941041785919</v>
       </c>
       <c r="CA11" t="n">
-        <v>1303</v>
+        <v>43.69322754972979</v>
       </c>
       <c r="CB11" t="n">
-        <v>1337</v>
+        <v>39.24737388895301</v>
       </c>
       <c r="CC11" t="n">
-        <v>1364</v>
+        <v>31.26447429365447</v>
       </c>
       <c r="CD11" t="n">
-        <v>1393</v>
+        <v>33.6935052863948</v>
       </c>
       <c r="CE11" t="n">
-        <v>1427</v>
+        <v>39.6593957774408</v>
       </c>
       <c r="CF11" t="n">
-        <v>1460</v>
+        <v>38.64168618266979</v>
       </c>
       <c r="CG11" t="n">
-        <v>1481</v>
+        <v>24.65078060805259</v>
       </c>
       <c r="CH11" t="n">
-        <v>1498</v>
+        <v>19.99529522465302</v>
       </c>
       <c r="CI11" t="n">
-        <v>1524</v>
+        <v>30.67484662576687</v>
       </c>
       <c r="CJ11" t="n">
-        <v>1547</v>
+        <v>27.20927481367562</v>
       </c>
       <c r="CK11" t="n">
-        <v>1576</v>
+        <v>34.42545109211776</v>
       </c>
       <c r="CL11" t="n">
-        <v>1603</v>
+        <v>32.15434083601286</v>
       </c>
       <c r="CM11" t="n">
-        <v>1630</v>
+        <v>32.25806451612903</v>
       </c>
       <c r="CN11" t="n">
-        <v>1664</v>
+        <v>40.78694817658349</v>
       </c>
       <c r="CO11" t="n">
-        <v>1694</v>
+        <v>36.11846857693234</v>
       </c>
       <c r="CP11" t="n">
-        <v>1727</v>
+        <v>39.88879487489424</v>
       </c>
       <c r="CQ11" t="n">
-        <v>1748</v>
+        <v>25.44837615123607</v>
       </c>
       <c r="CR11" t="n">
-        <v>1771</v>
+        <v>27.9499331632033</v>
       </c>
       <c r="CS11" t="n">
-        <v>1799</v>
+        <v>34.14217778319717</v>
       </c>
       <c r="CT11" t="n">
-        <v>1823</v>
+        <v>29.3506175859117</v>
       </c>
       <c r="CU11" t="n">
-        <v>1836</v>
+        <v>15.92356687898089</v>
       </c>
       <c r="CV11" t="n">
-        <v>1863</v>
+        <v>33.18176232026546</v>
       </c>
       <c r="CW11" t="n">
-        <v>1882</v>
+        <v>23.40477950234048</v>
       </c>
     </row>
     <row r="12" spans="1:101">
@@ -3830,208 +3830,208 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>2</v>
+        <v>2.000400080016003</v>
       </c>
       <c r="AI12" t="n">
-        <v>6</v>
+        <v>4.002401440864519</v>
       </c>
       <c r="AJ12" t="n">
-        <v>10</v>
+        <v>4.004004004004004</v>
       </c>
       <c r="AK12" t="n">
-        <v>14</v>
+        <v>4.005607850991388</v>
       </c>
       <c r="AL12" t="n">
-        <v>21</v>
+        <v>7.014730934963422</v>
       </c>
       <c r="AM12" t="n">
-        <v>28</v>
+        <v>7.019655034095467</v>
       </c>
       <c r="AN12" t="n">
-        <v>39</v>
+        <v>11.04306796506375</v>
       </c>
       <c r="AO12" t="n">
-        <v>50</v>
+        <v>11.05527638190955</v>
       </c>
       <c r="AP12" t="n">
-        <v>60</v>
+        <v>10.06036217303823</v>
       </c>
       <c r="AQ12" t="n">
-        <v>82</v>
+        <v>22.18189151038516</v>
       </c>
       <c r="AR12" t="n">
-        <v>98</v>
+        <v>16.15835184811149</v>
       </c>
       <c r="AS12" t="n">
-        <v>121</v>
+        <v>23.2817086749671</v>
       </c>
       <c r="AT12" t="n">
-        <v>156</v>
+        <v>35.55465258025193</v>
       </c>
       <c r="AU12" t="n">
-        <v>174</v>
+        <v>18.31874618359454</v>
       </c>
       <c r="AV12" t="n">
-        <v>211</v>
+        <v>37.79752783736848</v>
       </c>
       <c r="AW12" t="n">
-        <v>254</v>
+        <v>44.12066488815925</v>
       </c>
       <c r="AX12" t="n">
-        <v>298</v>
+        <v>45.35147392290249</v>
       </c>
       <c r="AY12" t="n">
-        <v>343</v>
+        <v>46.59832246039142</v>
       </c>
       <c r="AZ12" t="n">
-        <v>387</v>
+        <v>45.77135129512119</v>
       </c>
       <c r="BA12" t="n">
-        <v>441</v>
+        <v>56.49126477665028</v>
       </c>
       <c r="BB12" t="n">
-        <v>501</v>
+        <v>63.16454363617223</v>
       </c>
       <c r="BC12" t="n">
-        <v>555</v>
+        <v>57.17310746426681</v>
       </c>
       <c r="BD12" t="n">
-        <v>605</v>
+        <v>53.21979776476849</v>
       </c>
       <c r="BE12" t="n">
-        <v>651</v>
+        <v>49.20312332869826</v>
       </c>
       <c r="BF12" t="n">
-        <v>700</v>
+        <v>52.68817204301075</v>
       </c>
       <c r="BG12" t="n">
-        <v>741</v>
+        <v>44.2812398747165</v>
       </c>
       <c r="BH12" t="n">
-        <v>785</v>
+        <v>47.74823657080847</v>
       </c>
       <c r="BI12" t="n">
-        <v>825</v>
+        <v>43.59673024523161</v>
       </c>
       <c r="BJ12" t="n">
-        <v>876</v>
+        <v>55.89653660675143</v>
       </c>
       <c r="BK12" t="n">
-        <v>916</v>
+        <v>44.03346543372964</v>
       </c>
       <c r="BL12" t="n">
-        <v>955</v>
+        <v>43.11774461028192</v>
       </c>
       <c r="BM12" t="n">
-        <v>989</v>
+        <v>37.73166130285207</v>
       </c>
       <c r="BN12" t="n">
-        <v>1030</v>
+        <v>45.70791527313266</v>
       </c>
       <c r="BO12" t="n">
-        <v>1058</v>
+        <v>31.312905390293</v>
       </c>
       <c r="BP12" t="n">
-        <v>1110</v>
+        <v>58.49268841394826</v>
       </c>
       <c r="BQ12" t="n">
-        <v>1146</v>
+        <v>40.65958888637903</v>
       </c>
       <c r="BR12" t="n">
-        <v>1183</v>
+        <v>41.9643869796983</v>
       </c>
       <c r="BS12" t="n">
-        <v>1222</v>
+        <v>44.42925495557075</v>
       </c>
       <c r="BT12" t="n">
-        <v>1252</v>
+        <v>34.29355281207133</v>
       </c>
       <c r="BU12" t="n">
-        <v>1283</v>
+        <v>35.56269358724332</v>
       </c>
       <c r="BV12" t="n">
-        <v>1313</v>
+        <v>34.53436168988143</v>
       </c>
       <c r="BW12" t="n">
-        <v>1350</v>
+        <v>42.77456647398844</v>
       </c>
       <c r="BX12" t="n">
-        <v>1378</v>
+        <v>32.47506379030387</v>
       </c>
       <c r="BY12" t="n">
-        <v>1408</v>
+        <v>34.91620111731844</v>
       </c>
       <c r="BZ12" t="n">
-        <v>1445</v>
+        <v>43.24956165984805</v>
       </c>
       <c r="CA12" t="n">
-        <v>1467</v>
+        <v>25.78225711941873</v>
       </c>
       <c r="CB12" t="n">
-        <v>1495</v>
+        <v>32.92181069958848</v>
       </c>
       <c r="CC12" t="n">
-        <v>1529</v>
+        <v>40.13693778774643</v>
       </c>
       <c r="CD12" t="n">
-        <v>1564</v>
+        <v>41.48885727833096</v>
       </c>
       <c r="CE12" t="n">
-        <v>1594</v>
+        <v>35.6887937187723</v>
       </c>
       <c r="CF12" t="n">
-        <v>1618</v>
+        <v>28.63278453829635</v>
       </c>
       <c r="CG12" t="n">
-        <v>1645</v>
+        <v>32.31597845601436</v>
       </c>
       <c r="CH12" t="n">
-        <v>1672</v>
+        <v>32.4207492795389</v>
       </c>
       <c r="CI12" t="n">
-        <v>1699</v>
+        <v>32.5262016624503</v>
       </c>
       <c r="CJ12" t="n">
-        <v>1722</v>
+        <v>27.78448900700652</v>
       </c>
       <c r="CK12" t="n">
-        <v>1748</v>
+        <v>31.50751333010179</v>
       </c>
       <c r="CL12" t="n">
-        <v>1771</v>
+        <v>27.9499331632033</v>
       </c>
       <c r="CM12" t="n">
-        <v>1794</v>
+        <v>28.02827199610041</v>
       </c>
       <c r="CN12" t="n">
-        <v>1816</v>
+        <v>26.88172043010753</v>
       </c>
       <c r="CO12" t="n">
-        <v>1833</v>
+        <v>20.81547691930942</v>
       </c>
       <c r="CP12" t="n">
-        <v>1856</v>
+        <v>28.24165029469548</v>
       </c>
       <c r="CQ12" t="n">
-        <v>1873</v>
+        <v>20.91792789467208</v>
       </c>
       <c r="CR12" t="n">
-        <v>1897</v>
+        <v>29.61865975564606</v>
       </c>
       <c r="CS12" t="n">
-        <v>1927</v>
+        <v>37.16090672612412</v>
       </c>
       <c r="CT12" t="n">
-        <v>1950</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="CU12" t="n">
-        <v>1969</v>
+        <v>23.65832399452123</v>
       </c>
       <c r="CV12" t="n">
-        <v>1995</v>
+        <v>32.47970018738288</v>
       </c>
       <c r="CW12" t="n">
-        <v>2012</v>
+        <v>21.28192288432649</v>
       </c>
     </row>
   </sheetData>
